--- a/data/trans_orig/P70C3_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P70C3_2023-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>229416</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>209689</v>
+        <v>209243</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>251163</v>
+        <v>249859</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6139701639438779</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5611756955457986</v>
+        <v>0.5599817293511437</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6721705360028941</v>
+        <v>0.668681217054566</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>259</v>
@@ -762,19 +762,19 @@
         <v>203083</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>188497</v>
+        <v>187160</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>217970</v>
+        <v>219315</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.6091593780907945</v>
+        <v>0.6091593780907946</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5654074613478383</v>
+        <v>0.5613976226000593</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6538117446872515</v>
+        <v>0.6578484526197297</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>464</v>
@@ -783,19 +783,19 @@
         <v>432499</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>406274</v>
+        <v>405756</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>456922</v>
+        <v>459480</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6117017943162645</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.574609992438926</v>
+        <v>0.5738773529362641</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6462430762029913</v>
+        <v>0.6498621685400149</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>79192</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>63723</v>
+        <v>61697</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>97023</v>
+        <v>97984</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2119351654851601</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1705363534164276</v>
+        <v>0.1651150391774277</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.259655021799938</v>
+        <v>0.2622284712652438</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>104</v>
@@ -833,19 +833,19 @@
         <v>71899</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>61342</v>
+        <v>58869</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>85532</v>
+        <v>85320</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.2156649059497461</v>
+        <v>0.2156649059497462</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1839993317770741</v>
+        <v>0.1765796107586612</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2565591216479844</v>
+        <v>0.2559212387351404</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>175</v>
@@ -854,19 +854,19 @@
         <v>151091</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>129992</v>
+        <v>130577</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>171731</v>
+        <v>174830</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2136938033142219</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1838533153387624</v>
+        <v>0.1846798685421834</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2428862062162075</v>
+        <v>0.2472693787973394</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>35904</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>24375</v>
+        <v>24364</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>53248</v>
+        <v>50827</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.09608612269049803</v>
+        <v>0.09608612269049804</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.06523208544069971</v>
+        <v>0.06520401717648006</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1425046058409583</v>
+        <v>0.136023983223124</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>29</v>
@@ -904,19 +904,19 @@
         <v>21069</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>14431</v>
+        <v>14445</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>30058</v>
+        <v>28852</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.06319895272722457</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.04328767980718787</v>
+        <v>0.0433276505548072</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.09016046116654379</v>
+        <v>0.08654294742134204</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>57</v>
@@ -925,19 +925,19 @@
         <v>56973</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>44339</v>
+        <v>44804</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>75282</v>
+        <v>76969</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.08057924714852445</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.06271002634982312</v>
+        <v>0.06336784877903417</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1064739475170972</v>
+        <v>0.1088607669957363</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>11102</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5422</v>
+        <v>5741</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>21278</v>
+        <v>21352</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02971057369722158</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01451128174466684</v>
+        <v>0.0153638942356852</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05694403955750682</v>
+        <v>0.05714238640980448</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>32</v>
@@ -975,19 +975,19 @@
         <v>23612</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>16860</v>
+        <v>16285</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>33149</v>
+        <v>32581</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.07082466878769075</v>
+        <v>0.07082466878769077</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05057358679858948</v>
+        <v>0.04884803598656635</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09943349985380603</v>
+        <v>0.09772832590964917</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>42</v>
@@ -996,19 +996,19 @@
         <v>34713</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>25107</v>
+        <v>25529</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>47563</v>
+        <v>47782</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04909658825246468</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03551023094548792</v>
+        <v>0.03610653097813072</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06727004132225925</v>
+        <v>0.06757983656875477</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>7397</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2678</v>
+        <v>2794</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>14898</v>
+        <v>16647</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01979541955414195</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.007167188267014936</v>
+        <v>0.007477771623396683</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03987160678629618</v>
+        <v>0.04455231551833577</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>17</v>
@@ -1046,19 +1046,19 @@
         <v>11597</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>7185</v>
+        <v>7079</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>18697</v>
+        <v>18253</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.03478503907312135</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02155177780565972</v>
+        <v>0.02123409020470453</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.05608332058255071</v>
+        <v>0.05475129075166484</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>23</v>
@@ -1067,19 +1067,19 @@
         <v>18993</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>12095</v>
+        <v>11777</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>27811</v>
+        <v>28504</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02686328719255322</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01710682720688176</v>
+        <v>0.0166564645085403</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03933413265595</v>
+        <v>0.04031367299513516</v>
       </c>
     </row>
     <row r="9">
@@ -1096,19 +1096,19 @@
         <v>10650</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4969</v>
+        <v>5084</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>19176</v>
+        <v>20184</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.0285025546291004</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01329711845203701</v>
+        <v>0.0136061998600262</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.05131848192984448</v>
+        <v>0.05401688099026589</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>3</v>
@@ -1117,19 +1117,19 @@
         <v>2123</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>6486</v>
+        <v>6401</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.006367055371422719</v>
+        <v>0.00636705537142272</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.001714124259241197</v>
+        <v>0.001706702658929176</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.0194554608520833</v>
+        <v>0.0191987240627053</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>12</v>
@@ -1138,19 +1138,19 @@
         <v>12773</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>6599</v>
+        <v>6868</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>22931</v>
+        <v>22977</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.0180652797759713</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.009333243829256609</v>
+        <v>0.009714299182417702</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.03243232639412036</v>
+        <v>0.03249669613616463</v>
       </c>
     </row>
     <row r="10">
@@ -1242,19 +1242,19 @@
         <v>189482</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>169683</v>
+        <v>167497</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>207946</v>
+        <v>208949</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5971323458590679</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5347371715942602</v>
+        <v>0.5278480714528526</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6553196879658155</v>
+        <v>0.6584805133844636</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>204</v>
@@ -1263,19 +1263,19 @@
         <v>157099</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>142357</v>
+        <v>141228</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>171930</v>
+        <v>170872</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.5796403303565237</v>
+        <v>0.5796403303565236</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.525246528857903</v>
+        <v>0.5210804512071918</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6343599718621563</v>
+        <v>0.6304550253895066</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>360</v>
@@ -1284,19 +1284,19 @@
         <v>346582</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>323895</v>
+        <v>321782</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>372306</v>
+        <v>369763</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.5890744658317318</v>
+        <v>0.589074465831732</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5505149500185162</v>
+        <v>0.5469228066388047</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6327972693399687</v>
+        <v>0.6284747094927211</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>75784</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>59778</v>
+        <v>60687</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>92991</v>
+        <v>91922</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2388254140941144</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1883849657308254</v>
+        <v>0.1912471593554644</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2930503789069329</v>
+        <v>0.2896833643985636</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>97</v>
@@ -1334,19 +1334,19 @@
         <v>68228</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>56142</v>
+        <v>55408</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>80889</v>
+        <v>81998</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2517385662908372</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2071439999814854</v>
+        <v>0.2044344611208382</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2984499483201472</v>
+        <v>0.3025426639793306</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>171</v>
@@ -1355,19 +1355,19 @@
         <v>144013</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>125877</v>
+        <v>124275</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>165379</v>
+        <v>165710</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2447739928134042</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2139495747811688</v>
+        <v>0.2112270553232985</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2810895811593206</v>
+        <v>0.2816522064699923</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>20799</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>12870</v>
+        <v>12420</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>32221</v>
+        <v>33164</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06554571553584336</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04055758023726096</v>
+        <v>0.0391398242543415</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1015398782755089</v>
+        <v>0.1045140526974385</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>26</v>
@@ -1405,19 +1405,19 @@
         <v>20926</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>13560</v>
+        <v>13958</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>30578</v>
+        <v>30508</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07721100694260441</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05003170078201424</v>
+        <v>0.05149944540048389</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1128216471784992</v>
+        <v>0.1125629446972835</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>45</v>
@@ -1426,19 +1426,19 @@
         <v>41725</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>30232</v>
+        <v>30510</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>55228</v>
+        <v>55626</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.07091945412108083</v>
+        <v>0.07091945412108085</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05138385723900082</v>
+        <v>0.05185760953752169</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0938689471993365</v>
+        <v>0.09454630010599678</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>19717</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>11770</v>
+        <v>11872</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>32831</v>
+        <v>32650</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.06213531375838587</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03709035604889184</v>
+        <v>0.03741468868106683</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.103462181138579</v>
+        <v>0.1028928883814221</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>12</v>
@@ -1476,19 +1476,19 @@
         <v>9414</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>4967</v>
+        <v>4796</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>16364</v>
+        <v>16123</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03473271904963048</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01832620613257438</v>
+        <v>0.0176971278703022</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.06037584120755556</v>
+        <v>0.05948938269686666</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>27</v>
@@ -1497,19 +1497,19 @@
         <v>29130</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>19412</v>
+        <v>19472</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>43568</v>
+        <v>43000</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.04951202168728366</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03299355629131559</v>
+        <v>0.03309534241748203</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.07405075451642359</v>
+        <v>0.07308625932859281</v>
       </c>
     </row>
     <row r="15">
@@ -1526,19 +1526,19 @@
         <v>6015</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1822</v>
+        <v>1630</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>17219</v>
+        <v>17278</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.01895602612687409</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.005742129735404132</v>
+        <v>0.005137035684394492</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.05426435996840631</v>
+        <v>0.05444979777765015</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>11</v>
@@ -1547,19 +1547,19 @@
         <v>8957</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>4647</v>
+        <v>4807</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>14771</v>
+        <v>15263</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.03304735441733286</v>
+        <v>0.03304735441733285</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.01714480620324951</v>
+        <v>0.01773616428816597</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.0544989325917942</v>
+        <v>0.0563133239710028</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>15</v>
@@ -1568,19 +1568,19 @@
         <v>14972</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>8535</v>
+        <v>8917</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>26867</v>
+        <v>27408</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.02544734399552149</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.01450728465889717</v>
+        <v>0.01515557114589437</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.04566566670578785</v>
+        <v>0.04658439635064289</v>
       </c>
     </row>
     <row r="16">
@@ -1597,19 +1597,19 @@
         <v>5523</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1841</v>
+        <v>2084</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12322</v>
+        <v>13094</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01740518462571428</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.005800435124237857</v>
+        <v>0.006567155473550182</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03883292718972979</v>
+        <v>0.04126375370399389</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -1621,16 +1621,16 @@
         <v>3061</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>11623</v>
+        <v>11892</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02363002294307128</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01129505658738362</v>
+        <v>0.01129505673547549</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04288333573927921</v>
+        <v>0.04387793381123505</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>13</v>
@@ -1639,19 +1639,19 @@
         <v>11927</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6334</v>
+        <v>6292</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>20281</v>
+        <v>19812</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02027272155097776</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0107652449126117</v>
+        <v>0.01069479706278744</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03447072115924284</v>
+        <v>0.03367352264229048</v>
       </c>
     </row>
     <row r="17">
@@ -1743,19 +1743,19 @@
         <v>153479</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>135134</v>
+        <v>136112</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>172530</v>
+        <v>171641</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.5692847147915781</v>
+        <v>0.5692847147915782</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5012425754137112</v>
+        <v>0.5048689093578772</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6399513161641658</v>
+        <v>0.6366545427835374</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>61</v>
@@ -1764,19 +1764,19 @@
         <v>44838</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>37283</v>
+        <v>36041</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>53139</v>
+        <v>52546</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.5488720594186338</v>
+        <v>0.5488720594186337</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.4563918216287692</v>
+        <v>0.4411863105319557</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.6504889865271688</v>
+        <v>0.6432295437190095</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>191</v>
@@ -1785,19 +1785,19 @@
         <v>198316</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>178628</v>
+        <v>177995</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>217392</v>
+        <v>217918</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.5645378280148472</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.5084912125738451</v>
+        <v>0.5066888908591284</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.6188395593869338</v>
+        <v>0.6203376768419646</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>56389</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>43685</v>
+        <v>43067</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>70923</v>
+        <v>70055</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.2091590830615826</v>
+        <v>0.2091590830615827</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.162036001509679</v>
+        <v>0.1597441089460104</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2630667319248622</v>
+        <v>0.2598495622792835</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>32</v>
@@ -1835,19 +1835,19 @@
         <v>21034</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>14456</v>
+        <v>15032</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>28080</v>
+        <v>28352</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2574782517804922</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1769622984224659</v>
+        <v>0.1840099437593829</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3437369920621802</v>
+        <v>0.3470619367470029</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>88</v>
@@ -1856,19 +1856,19 @@
         <v>77423</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>62999</v>
+        <v>63112</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>93852</v>
+        <v>93917</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2203955253011565</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1793353911772439</v>
+        <v>0.1796578363150406</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2671636751344317</v>
+        <v>0.2673483461315355</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>13319</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>7365</v>
+        <v>7707</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>23343</v>
+        <v>23158</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.04940200704374575</v>
+        <v>0.04940200704374576</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02731953048151938</v>
+        <v>0.02858525976205044</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.08658499494261089</v>
+        <v>0.08589754863976397</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>5</v>
@@ -1906,19 +1906,19 @@
         <v>3002</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1005</v>
+        <v>1136</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>7032</v>
+        <v>7275</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.03674960626169931</v>
+        <v>0.03674960626169932</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01230126172727907</v>
+        <v>0.01390159012464755</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.08608575543078195</v>
+        <v>0.08905705914855928</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>17</v>
@@ -1927,19 +1927,19 @@
         <v>16321</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>9460</v>
+        <v>9247</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>24563</v>
+        <v>26650</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.04645973849176697</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.02692793893979165</v>
+        <v>0.02632323840240293</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.0699221158979044</v>
+        <v>0.07586341548380027</v>
       </c>
     </row>
     <row r="21">
@@ -1956,19 +1956,19 @@
         <v>19708</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>11823</v>
+        <v>11338</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>33016</v>
+        <v>30715</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.07310114318055384</v>
+        <v>0.07310114318055386</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.04385560665356917</v>
+        <v>0.04205566362310249</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1224629806104518</v>
+        <v>0.1139279030343366</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>8</v>
@@ -1977,19 +1977,19 @@
         <v>5134</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>2461</v>
+        <v>2277</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>9827</v>
+        <v>9453</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.06284949350331351</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.03013058733213635</v>
+        <v>0.02787104304810403</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1202947875557193</v>
+        <v>0.1157109087956497</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>24</v>
@@ -1998,19 +1998,19 @@
         <v>24842</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>15824</v>
+        <v>15170</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>37206</v>
+        <v>37167</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.07071716033248847</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.04504518729265804</v>
+        <v>0.04318399850693662</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1059118132656107</v>
+        <v>0.1058023548871775</v>
       </c>
     </row>
     <row r="22">
@@ -2027,19 +2027,19 @@
         <v>16164</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>9118</v>
+        <v>8745</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>30353</v>
+        <v>29395</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.05995687657427698</v>
+        <v>0.05995687657427699</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03382202395253557</v>
+        <v>0.03243648861516507</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1125865842069641</v>
+        <v>0.1090324464184585</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>7</v>
@@ -2048,19 +2048,19 @@
         <v>7200</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2777</v>
+        <v>2663</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>17980</v>
+        <v>17007</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.08813693161318903</v>
+        <v>0.08813693161318906</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03399439525718824</v>
+        <v>0.03260111037843818</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2200922936303567</v>
+        <v>0.208188742386261</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>21</v>
@@ -2069,19 +2069,19 @@
         <v>23364</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>14139</v>
+        <v>14403</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>39669</v>
+        <v>37841</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06651004313628432</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0402486876349164</v>
+        <v>0.04100073521253563</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1129241572297965</v>
+        <v>0.1077193081557256</v>
       </c>
     </row>
     <row r="23">
@@ -2098,19 +2098,19 @@
         <v>10540</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>5107</v>
+        <v>4980</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>20780</v>
+        <v>21007</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.03909617534826284</v>
+        <v>0.03909617534826285</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01894365678389567</v>
+        <v>0.01847098207167105</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.07707820172851555</v>
+        <v>0.07792027972080195</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1</v>
@@ -2122,7 +2122,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2305</v>
+        <v>2738</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.005913657422672094</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.02822040726833635</v>
+        <v>0.03351701575229683</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>11</v>
@@ -2140,19 +2140,19 @@
         <v>11023</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5610</v>
+        <v>5356</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>20874</v>
+        <v>20550</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.0313797047234565</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01596874912647554</v>
+        <v>0.01524571701658806</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.05942207859673072</v>
+        <v>0.05849834219405559</v>
       </c>
     </row>
     <row r="24">
@@ -2244,19 +2244,19 @@
         <v>304535</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>276937</v>
+        <v>278362</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>336888</v>
+        <v>333464</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.493602477322083</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4488710080525904</v>
+        <v>0.4511810854886187</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5460409307987145</v>
+        <v>0.5404919528807429</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>311</v>
@@ -2265,19 +2265,19 @@
         <v>243900</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>225442</v>
+        <v>224760</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>262743</v>
+        <v>264408</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.5149650402664492</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4759932269721627</v>
+        <v>0.4745541836083595</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5547499557576054</v>
+        <v>0.5582655660714032</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>567</v>
@@ -2286,19 +2286,19 @@
         <v>548434</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>513735</v>
+        <v>512466</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>581378</v>
+        <v>581910</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.5028798801084909</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4710627677493527</v>
+        <v>0.4698993806917744</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5330873027572308</v>
+        <v>0.5335747227826146</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>148317</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>124343</v>
+        <v>124260</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>173989</v>
+        <v>174280</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2403974570435528</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2015406980329663</v>
+        <v>0.2014059992347403</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2820086076468963</v>
+        <v>0.2824802008715239</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>183</v>
@@ -2336,19 +2336,19 @@
         <v>130841</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>114302</v>
+        <v>114507</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>148274</v>
+        <v>149464</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2762559258075115</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2413358387992438</v>
+        <v>0.2417676749212058</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3130620040955794</v>
+        <v>0.3155760403738309</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>317</v>
@@ -2357,19 +2357,19 @@
         <v>279158</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>252200</v>
+        <v>251283</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>310896</v>
+        <v>312181</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2559701885970394</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2312520003437521</v>
+        <v>0.2304111692765273</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2850721215476317</v>
+        <v>0.2862504509438473</v>
       </c>
     </row>
     <row r="27">
@@ -2386,19 +2386,19 @@
         <v>66996</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>49973</v>
+        <v>51063</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>84607</v>
+        <v>87219</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1085903431466688</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.08099749210914198</v>
+        <v>0.08276446244413262</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1371336320877301</v>
+        <v>0.1413683303974388</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>53</v>
@@ -2407,19 +2407,19 @@
         <v>40461</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>30875</v>
+        <v>31226</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>52538</v>
+        <v>52237</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.08542905471922718</v>
+        <v>0.0854290547192272</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.06518897915111446</v>
+        <v>0.06592907390754103</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1109281802655479</v>
+        <v>0.1102919801567858</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>109</v>
@@ -2428,19 +2428,19 @@
         <v>107457</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>90119</v>
+        <v>86801</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>133763</v>
+        <v>129884</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.09853178405181</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.08263322149108729</v>
+        <v>0.07959122711116277</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1226524161323523</v>
+        <v>0.1190958041312084</v>
       </c>
     </row>
     <row r="28">
@@ -2457,19 +2457,19 @@
         <v>56486</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>42557</v>
+        <v>40989</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>74707</v>
+        <v>73716</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.09155421702337836</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.06897771696433484</v>
+        <v>0.06643687363586845</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1210883455786853</v>
+        <v>0.1194822232856305</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>46</v>
@@ -2478,19 +2478,19 @@
         <v>33388</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>24670</v>
+        <v>24113</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>44248</v>
+        <v>43157</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.07049569351449994</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.05208814653548349</v>
+        <v>0.05091112870375558</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.09342465887936123</v>
+        <v>0.0911199269470291</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>95</v>
@@ -2499,19 +2499,19 @@
         <v>89874</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>74291</v>
+        <v>72783</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>110515</v>
+        <v>110357</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.08240885346434756</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.06812055411082076</v>
+        <v>0.06673717087060071</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1013350985112967</v>
+        <v>0.1011907058662473</v>
       </c>
     </row>
     <row r="29">
@@ -2528,19 +2528,19 @@
         <v>33476</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>21819</v>
+        <v>22685</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>49514</v>
+        <v>48467</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.05425931994567897</v>
+        <v>0.05425931994567896</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.03536574368057138</v>
+        <v>0.03676938494942035</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.08025368987899247</v>
+        <v>0.07855691702288718</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>26</v>
@@ -2549,19 +2549,19 @@
         <v>21026</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>13107</v>
+        <v>13674</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>30424</v>
+        <v>30640</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.04439436991870065</v>
+        <v>0.04439436991870066</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.02767463216606021</v>
+        <v>0.0288719515566405</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.064237483368298</v>
+        <v>0.06469217408732832</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>54</v>
@@ -2570,19 +2570,19 @@
         <v>54502</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>42024</v>
+        <v>41391</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>72144</v>
+        <v>72789</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.04997513760733266</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03853344360361233</v>
+        <v>0.03795296677775562</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.06615172306761068</v>
+        <v>0.06674313305055304</v>
       </c>
     </row>
     <row r="30">
@@ -2599,19 +2599,19 @@
         <v>7154</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2798</v>
+        <v>2680</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>17019</v>
+        <v>15660</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.0115961855186381</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.004534390821219245</v>
+        <v>0.004344464853223332</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.02758479232688179</v>
+        <v>0.0253817063972605</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>5</v>
@@ -2620,19 +2620,19 @@
         <v>4007</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1312</v>
+        <v>1320</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>9548</v>
+        <v>9242</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.008459915773611461</v>
+        <v>0.008459915773611463</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.002769965468572759</v>
+        <v>0.002786689500408498</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.02016042996469629</v>
+        <v>0.01951329386660697</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>11</v>
@@ -2641,19 +2641,19 @@
         <v>11161</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>6028</v>
+        <v>5449</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>19614</v>
+        <v>19620</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.01023415617097919</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.005527290189223688</v>
+        <v>0.004996609361131023</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.01798508883591935</v>
+        <v>0.01799030748183549</v>
       </c>
     </row>
     <row r="31">
@@ -2745,19 +2745,19 @@
         <v>190948</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>167434</v>
+        <v>172165</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>209248</v>
+        <v>210814</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.6195697274016547</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.5432730053052661</v>
+        <v>0.5586238061834713</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.6789479254915352</v>
+        <v>0.6840291169381948</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>204</v>
@@ -2766,19 +2766,19 @@
         <v>155820</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>140593</v>
+        <v>140999</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>170554</v>
+        <v>172074</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.5080227429615265</v>
+        <v>0.5080227429615266</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.4583762589824443</v>
+        <v>0.4597012514757957</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.5560588004287761</v>
+        <v>0.5610164622104398</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>350</v>
@@ -2787,19 +2787,19 @@
         <v>346769</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>324002</v>
+        <v>320332</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>373976</v>
+        <v>372776</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.5639301620707196</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.5269056585923996</v>
+        <v>0.5209374362133028</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.60817552401202</v>
+        <v>0.606224916494546</v>
       </c>
     </row>
     <row r="33">
@@ -2816,19 +2816,19 @@
         <v>68488</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>53616</v>
+        <v>52576</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>87316</v>
+        <v>85370</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.2222228775922553</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1739664076157736</v>
+        <v>0.1705920170557935</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.2833137326960276</v>
+        <v>0.2769994662806485</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>115</v>
@@ -2837,19 +2837,19 @@
         <v>78170</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>65913</v>
+        <v>66046</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>92343</v>
+        <v>92436</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.2548599111624501</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.2148961273430912</v>
+        <v>0.2153300880146066</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.3010674013878077</v>
+        <v>0.3013713783448755</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>177</v>
@@ -2858,19 +2858,19 @@
         <v>146658</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>126168</v>
+        <v>127048</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>166554</v>
+        <v>170063</v>
       </c>
       <c r="U33" s="6" t="n">
-        <v>0.2385022093075062</v>
+        <v>0.2385022093075061</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.2051806155610388</v>
+        <v>0.2066106726010477</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.2708575086254446</v>
+        <v>0.276563837478258</v>
       </c>
     </row>
     <row r="34">
@@ -2887,19 +2887,19 @@
         <v>21240</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>13361</v>
+        <v>12666</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>33419</v>
+        <v>34840</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.06891677746681683</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.04335160026701461</v>
+        <v>0.04109610513934459</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1084343262356894</v>
+        <v>0.1130456716066783</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>43</v>
@@ -2908,19 +2908,19 @@
         <v>31390</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>23432</v>
+        <v>22587</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>42247</v>
+        <v>42632</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1023402007330893</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.07639482431423072</v>
+        <v>0.07363993410844206</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.137739881806514</v>
+        <v>0.1389951443186348</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>62</v>
@@ -2929,19 +2929,19 @@
         <v>52629</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>40117</v>
+        <v>39992</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>67610</v>
+        <v>68844</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.08558835986540173</v>
+        <v>0.08558835986540174</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.06523942902470363</v>
+        <v>0.06503691869851567</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1099504420545001</v>
+        <v>0.1119576551720174</v>
       </c>
     </row>
     <row r="35">
@@ -2958,19 +2958,19 @@
         <v>21095</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>12789</v>
+        <v>12455</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>37171</v>
+        <v>37374</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.06844711661055057</v>
+        <v>0.06844711661055056</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.04149790785464438</v>
+        <v>0.04041394366491627</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1206076294814615</v>
+        <v>0.1212685090276716</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>33</v>
@@ -2979,19 +2979,19 @@
         <v>23400</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>16232</v>
+        <v>16315</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>32440</v>
+        <v>32367</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.07629148820653422</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.05292224649496299</v>
+        <v>0.05319065547450458</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1057629730087512</v>
+        <v>0.1055253635498249</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>51</v>
@@ -3000,19 +3000,19 @@
         <v>44495</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>32882</v>
+        <v>32178</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>60648</v>
+        <v>60540</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.07235988420427361</v>
+        <v>0.07235988420427363</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.0534736688750722</v>
+        <v>0.05232934714473782</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.09862763494631924</v>
+        <v>0.09845204433330317</v>
       </c>
     </row>
     <row r="36">
@@ -3029,19 +3029,19 @@
         <v>4479</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1685</v>
+        <v>1621</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>10545</v>
+        <v>9873</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.01453212853573382</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.005467024103464719</v>
+        <v>0.005259022685138253</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.03421380463335238</v>
+        <v>0.03203562670786427</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>14</v>
@@ -3050,19 +3050,19 @@
         <v>9763</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>5274</v>
+        <v>5607</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>16163</v>
+        <v>15334</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.03183034109048115</v>
+        <v>0.03183034109048116</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.01719471897325808</v>
+        <v>0.01828000080648968</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.05269708900509718</v>
+        <v>0.04999526224824653</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>19</v>
@@ -3071,19 +3071,19 @@
         <v>14242</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>8614</v>
+        <v>8986</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>21406</v>
+        <v>21983</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.02316046602400415</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.01400879032903738</v>
+        <v>0.01461281905730218</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.03481182201151777</v>
+        <v>0.0357497027853694</v>
       </c>
     </row>
     <row r="37">
@@ -3103,7 +3103,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>6135</v>
+        <v>6893</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.00631137239298877</v>
@@ -3112,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.01990728647727691</v>
+        <v>0.02236426137887563</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>12</v>
@@ -3121,19 +3121,19 @@
         <v>8176</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>4476</v>
+        <v>4667</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>13961</v>
+        <v>14339</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.02665531584591881</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.01459175657421743</v>
+        <v>0.01521568652231769</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.04551811927162958</v>
+        <v>0.0467485912018701</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>14</v>
@@ -3142,19 +3142,19 @@
         <v>10121</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>5742</v>
+        <v>5640</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>16274</v>
+        <v>16028</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.01645891852809476</v>
+        <v>0.01645891852809475</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.009338508628033355</v>
+        <v>0.00917153089003203</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.02646619152095835</v>
+        <v>0.02606541074272535</v>
       </c>
     </row>
     <row r="38">
@@ -3246,19 +3246,19 @@
         <v>1067860</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>1020628</v>
+        <v>1018303</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>1115446</v>
+        <v>1116178</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.5662822790092991</v>
+        <v>0.566282279009299</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.5412352454578824</v>
+        <v>0.5400025642141911</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.5915168439064049</v>
+        <v>0.5919048967654706</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>1039</v>
@@ -3267,19 +3267,19 @@
         <v>804741</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>768966</v>
+        <v>768065</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>836345</v>
+        <v>840842</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>0.5487693939157803</v>
+        <v>0.5487693939157804</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.5243736616044299</v>
+        <v>0.5237594906546356</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.5703211162328643</v>
+        <v>0.5733875281659162</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>1932</v>
@@ -3288,19 +3288,19 @@
         <v>1872601</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>1813347</v>
+        <v>1807549</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>1933948</v>
+        <v>1930046</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.5586210927854198</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.540945001954293</v>
+        <v>0.5392152771596576</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.5769216904049997</v>
+        <v>0.575757644599297</v>
       </c>
     </row>
     <row r="40">
@@ -3317,19 +3317,19 @@
         <v>428169</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>388980</v>
+        <v>386128</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>470453</v>
+        <v>466660</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.2270566844257502</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.2062745185046998</v>
+        <v>0.2047620175912779</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2494796258145877</v>
+        <v>0.2474680626758029</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>531</v>
@@ -3338,19 +3338,19 @@
         <v>370173</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>340262</v>
+        <v>340904</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>401483</v>
+        <v>399607</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.2524286136295552</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.2320318689183236</v>
+        <v>0.2324697046465126</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.2737792942546048</v>
+        <v>0.2725006293202967</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>928</v>
@@ -3359,19 +3359,19 @@
         <v>798342</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>751373</v>
+        <v>752172</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>846893</v>
+        <v>851241</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.2381558878666137</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.224144266411704</v>
+        <v>0.22438256837248</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.2526393089500483</v>
+        <v>0.2539362552640658</v>
       </c>
     </row>
     <row r="41">
@@ -3388,19 +3388,19 @@
         <v>158257</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>133682</v>
+        <v>134086</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>190307</v>
+        <v>191191</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>0.08392330635780609</v>
+        <v>0.08392330635780608</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.07089115532841828</v>
+        <v>0.0711055664969583</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1009189661956537</v>
+        <v>0.1013880905957941</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>156</v>
@@ -3409,19 +3409,19 @@
         <v>116849</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>99133</v>
+        <v>99679</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>135710</v>
+        <v>137152</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.07968170352655062</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.06760098946194532</v>
+        <v>0.06797285395189848</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.09254359313649874</v>
+        <v>0.09352657841344747</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>290</v>
@@ -3430,19 +3430,19 @@
         <v>275106</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>245910</v>
+        <v>243669</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>310345</v>
+        <v>310519</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.08206777490171224</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.07335819868405472</v>
+        <v>0.07268974680812001</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.09257998083452339</v>
+        <v>0.09263189119667697</v>
       </c>
     </row>
     <row r="42">
@@ -3459,19 +3459,19 @@
         <v>128107</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>102995</v>
+        <v>106106</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>154921</v>
+        <v>157446</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>0.06793474975975416</v>
+        <v>0.06793474975975415</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.05461769158035523</v>
+        <v>0.05626776405528133</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.08215412224534184</v>
+        <v>0.08349279454540044</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>131</v>
@@ -3480,19 +3480,19 @@
         <v>94948</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>78373</v>
+        <v>79590</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>113349</v>
+        <v>111267</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.06474703993520566</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.0534441371266867</v>
+        <v>0.05427411137560801</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.07729521665125484</v>
+        <v>0.07587508858934548</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>239</v>
@@ -3501,19 +3501,19 @@
         <v>223055</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>193829</v>
+        <v>192727</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>254349</v>
+        <v>254558</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.06654025430893928</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.0578218063048993</v>
+        <v>0.05749286946648949</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.07587552573678287</v>
+        <v>0.07593800456588158</v>
       </c>
     </row>
     <row r="43">
@@ -3530,19 +3530,19 @@
         <v>67531</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>51616</v>
+        <v>51265</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>90132</v>
+        <v>91461</v>
       </c>
       <c r="G43" s="6" t="n">
-        <v>0.03581141543536167</v>
+        <v>0.03581141543536166</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.02737203396458093</v>
+        <v>0.02718583824255754</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.04779693225315362</v>
+        <v>0.04850127368085499</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>75</v>
@@ -3551,19 +3551,19 @@
         <v>58543</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>45136</v>
+        <v>45649</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>72695</v>
+        <v>74872</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.03992150954703411</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.03077912882571033</v>
+        <v>0.03112924507644256</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.04957220913794606</v>
+        <v>0.05105647337707747</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>132</v>
@@ -3572,19 +3572,19 @@
         <v>126074</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>104464</v>
+        <v>106142</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>153231</v>
+        <v>154229</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.03760941709065976</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.03116290783287189</v>
+        <v>0.03166349458963277</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.04571088322907865</v>
+        <v>0.04600866031654239</v>
       </c>
     </row>
     <row r="44">
@@ -3601,19 +3601,19 @@
         <v>35813</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>24150</v>
+        <v>23839</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>49392</v>
+        <v>51334</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.01899156501202892</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.01280661022908423</v>
+        <v>0.01264173806345221</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.02619256734933456</v>
+        <v>0.02722223418595006</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>29</v>
@@ -3622,19 +3622,19 @@
         <v>21193</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>14009</v>
+        <v>14482</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>30089</v>
+        <v>29874</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.01445173944587412</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.00955279352740358</v>
+        <v>0.009875861931342858</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.02051840278997074</v>
+        <v>0.02037179954009653</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>61</v>
@@ -3643,19 +3643,19 @@
         <v>57006</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>44103</v>
+        <v>45100</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>74638</v>
+        <v>74551</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.01700557304665529</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.01315653302714231</v>
+        <v>0.0134538909809308</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.02226558995513008</v>
+        <v>0.02223949063831514</v>
       </c>
     </row>
     <row r="45">
